--- a/public/assets/examexcel/Nilai Kelas XII.xlsx
+++ b/public/assets/examexcel/Nilai Kelas XII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51acd3664b40e96f/Documents/KAPROG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5da8a393d89142a7/Dokumen/Web-Kelulusan/public/assets/examexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{BF11E5B4-9E82-439E-AC10-7EF34D24A64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8EBFA1F5-8281-4465-8224-E7D3793643AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8EBFA1F5-8281-4465-8224-E7D3793643AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1934,32 +1932,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8BB6CD-4B52-4425-969E-8F17327785BB}">
   <dimension ref="A1:T439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E395" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" zoomScale="30" workbookViewId="0">
+      <selection activeCell="T335" sqref="T335"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.9296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.9296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2145,7 +2143,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2207,7 +2205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2269,7 +2267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2331,7 +2329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2393,7 +2391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2455,7 +2453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2579,7 +2577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2641,7 +2639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2703,7 +2701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2827,7 +2825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2889,7 +2887,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2951,7 +2949,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3013,7 +3011,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3075,7 +3073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3137,7 +3135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3199,7 +3197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3323,7 +3321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3385,7 +3383,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3447,7 +3445,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3571,7 +3569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3633,7 +3631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3695,7 +3693,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3757,7 +3755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3819,7 +3817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3943,7 +3941,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4005,7 +4003,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4067,7 +4065,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4129,7 +4127,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4191,7 +4189,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4253,7 +4251,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4315,7 +4313,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4377,7 +4375,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4439,7 +4437,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4501,7 +4499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4625,7 +4623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4687,7 +4685,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4811,7 +4809,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4873,7 +4871,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4935,7 +4933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5059,7 +5057,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5121,7 +5119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5183,7 +5181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5245,7 +5243,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5307,7 +5305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5369,7 +5367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5431,7 +5429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5493,7 +5491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5555,7 +5553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5617,7 +5615,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5679,7 +5677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5741,7 +5739,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5803,7 +5801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5865,7 +5863,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5927,7 +5925,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5989,7 +5987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6051,7 +6049,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6113,7 +6111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -6175,7 +6173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6237,7 +6235,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -6299,7 +6297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6361,7 +6359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -6423,7 +6421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6485,7 +6483,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -6547,7 +6545,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6609,7 +6607,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6671,7 +6669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6733,7 +6731,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -6795,7 +6793,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6857,7 +6855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -6919,7 +6917,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -6981,7 +6979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7043,7 +7041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7105,7 +7103,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -7167,7 +7165,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7229,7 +7227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -7291,7 +7289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7353,7 +7351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -7415,7 +7413,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -7477,7 +7475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -7539,7 +7537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7601,7 +7599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -7663,7 +7661,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -7725,7 +7723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -7787,7 +7785,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -7849,7 +7847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -7911,7 +7909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7973,7 +7971,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -8035,7 +8033,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -8097,7 +8095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -8159,7 +8157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -8221,7 +8219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -8283,7 +8281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -8345,7 +8343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -8407,7 +8405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -8469,7 +8467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -8531,7 +8529,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -8593,7 +8591,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -8655,7 +8653,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -8717,7 +8715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -8779,7 +8777,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -8841,7 +8839,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -8903,7 +8901,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -8965,7 +8963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -9027,7 +9025,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -9089,7 +9087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -9151,7 +9149,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -9213,7 +9211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -9275,7 +9273,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -9337,7 +9335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -9399,7 +9397,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -9461,7 +9459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -9523,7 +9521,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -9585,7 +9583,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -9647,7 +9645,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -9709,7 +9707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -9771,7 +9769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -9833,7 +9831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -9895,7 +9893,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -9957,7 +9955,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -10019,7 +10017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -10081,7 +10079,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -10143,7 +10141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -10205,7 +10203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -10267,7 +10265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -10329,7 +10327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -10391,7 +10389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -10453,7 +10451,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -10515,7 +10513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -10577,7 +10575,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -10639,7 +10637,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -10701,7 +10699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -10763,7 +10761,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -10825,7 +10823,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -10887,7 +10885,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -10949,7 +10947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -11011,7 +11009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -11073,7 +11071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -11135,7 +11133,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -11197,7 +11195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -11259,7 +11257,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -11321,7 +11319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -11383,7 +11381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -11445,7 +11443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -11507,7 +11505,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -11569,7 +11567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -11631,7 +11629,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -11693,7 +11691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -11755,7 +11753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -11817,7 +11815,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -11879,7 +11877,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -11941,7 +11939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -12003,7 +12001,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -12065,7 +12063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -12127,7 +12125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -12189,7 +12187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -12251,7 +12249,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -12313,7 +12311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -12375,7 +12373,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -12437,7 +12435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -12499,7 +12497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -12561,7 +12559,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -12623,7 +12621,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -12685,7 +12683,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -12747,7 +12745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -12809,7 +12807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -12871,7 +12869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -12933,7 +12931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -12995,7 +12993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -13057,7 +13055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -13119,7 +13117,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -13181,7 +13179,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -13243,7 +13241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -13305,7 +13303,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -13367,7 +13365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -13429,7 +13427,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -13491,7 +13489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -13553,7 +13551,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -13615,7 +13613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -13677,7 +13675,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -13739,7 +13737,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -13801,7 +13799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -13863,7 +13861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -13925,7 +13923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -13987,7 +13985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -14049,7 +14047,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -14111,7 +14109,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -14173,7 +14171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -14235,7 +14233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -14297,7 +14295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -14359,7 +14357,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -14421,7 +14419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -14545,7 +14543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -14607,7 +14605,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -14669,7 +14667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -14731,7 +14729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -14793,7 +14791,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -14855,7 +14853,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -14917,7 +14915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -14979,7 +14977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -15041,7 +15039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -15103,7 +15101,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -15165,7 +15163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -15227,7 +15225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -15289,7 +15287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -15351,7 +15349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -15413,7 +15411,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -15475,7 +15473,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -15537,7 +15535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -15599,7 +15597,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -15661,7 +15659,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -15723,7 +15721,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -15785,7 +15783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -15847,7 +15845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -15909,7 +15907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -15971,7 +15969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -16033,7 +16031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -16095,7 +16093,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -16157,7 +16155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -16219,7 +16217,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -16281,7 +16279,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -16343,7 +16341,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -16405,7 +16403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -16467,7 +16465,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -16529,7 +16527,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -16591,7 +16589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -16653,7 +16651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -16715,7 +16713,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -16777,7 +16775,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -16839,7 +16837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -16901,7 +16899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -16963,7 +16961,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -17025,7 +17023,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -17087,7 +17085,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -17149,7 +17147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -17211,7 +17209,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -17273,7 +17271,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -17335,7 +17333,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -17397,7 +17395,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -17459,7 +17457,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -17521,7 +17519,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -17583,7 +17581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -17645,7 +17643,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -17707,7 +17705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -17769,7 +17767,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -17831,7 +17829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -17893,7 +17891,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -17955,7 +17953,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -18017,7 +18015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -18079,7 +18077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -18141,7 +18139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -18203,7 +18201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -18265,7 +18263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -18327,7 +18325,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -18389,7 +18387,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -18451,7 +18449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -18513,7 +18511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -18575,7 +18573,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -18637,7 +18635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -18699,7 +18697,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -18761,7 +18759,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -18823,7 +18821,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -18885,7 +18883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -18947,7 +18945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -19009,7 +19007,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -19071,7 +19069,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -19133,7 +19131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -19195,7 +19193,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -19257,7 +19255,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -19319,7 +19317,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -19381,7 +19379,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -19443,7 +19441,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -19505,7 +19503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -19567,7 +19565,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -19629,7 +19627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -19691,7 +19689,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -19753,7 +19751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -19815,7 +19813,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -19877,7 +19875,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -19939,7 +19937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -20001,7 +19999,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -20063,7 +20061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -20125,7 +20123,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -20187,7 +20185,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -20249,7 +20247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -20311,7 +20309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -20373,7 +20371,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -20435,7 +20433,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -20497,7 +20495,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -20559,7 +20557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -20621,7 +20619,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -20683,7 +20681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -20745,7 +20743,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -20807,7 +20805,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -20869,7 +20867,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -20931,7 +20929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -20993,7 +20991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -21055,7 +21053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -21117,7 +21115,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -21179,7 +21177,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -21241,7 +21239,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -21303,7 +21301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -21365,7 +21363,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -21427,7 +21425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -21489,7 +21487,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -21551,7 +21549,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -21613,7 +21611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -21675,7 +21673,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -21737,7 +21735,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A320" s="3">
         <v>319</v>
       </c>
@@ -21799,7 +21797,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -21861,7 +21859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A322" s="3">
         <v>321</v>
       </c>
@@ -21923,7 +21921,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -21985,7 +21983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A324" s="3">
         <v>323</v>
       </c>
@@ -22047,7 +22045,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -22109,7 +22107,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A326" s="3">
         <v>325</v>
       </c>
@@ -22171,7 +22169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -22233,7 +22231,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A328" s="3">
         <v>327</v>
       </c>
@@ -22295,7 +22293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -22357,7 +22355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A330" s="3">
         <v>329</v>
       </c>
@@ -22419,7 +22417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -22481,7 +22479,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A332" s="3">
         <v>331</v>
       </c>
@@ -22543,7 +22541,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -22605,7 +22603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -22667,7 +22665,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -22729,7 +22727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A336" s="3">
         <v>335</v>
       </c>
@@ -22791,7 +22789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -22853,7 +22851,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -22915,7 +22913,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -22977,7 +22975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -23039,7 +23037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -23101,7 +23099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A342" s="3">
         <v>341</v>
       </c>
@@ -23163,7 +23161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -23225,7 +23223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A344" s="3">
         <v>343</v>
       </c>
@@ -23287,7 +23285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -23349,7 +23347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A346" s="3">
         <v>345</v>
       </c>
@@ -23411,7 +23409,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -23473,7 +23471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A348" s="3">
         <v>347</v>
       </c>
@@ -23535,7 +23533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -23597,7 +23595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A350" s="3">
         <v>349</v>
       </c>
@@ -23659,7 +23657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A351" s="3">
         <v>350</v>
       </c>
@@ -23721,7 +23719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A352" s="3">
         <v>351</v>
       </c>
@@ -23783,7 +23781,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A353" s="3">
         <v>352</v>
       </c>
@@ -23845,7 +23843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A354" s="3">
         <v>353</v>
       </c>
@@ -23907,7 +23905,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A355" s="3">
         <v>354</v>
       </c>
@@ -23969,7 +23967,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A356" s="3">
         <v>355</v>
       </c>
@@ -24031,7 +24029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A357" s="3">
         <v>356</v>
       </c>
@@ -24093,7 +24091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A358" s="3">
         <v>357</v>
       </c>
@@ -24155,7 +24153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A359" s="3">
         <v>358</v>
       </c>
@@ -24217,7 +24215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A360" s="3">
         <v>359</v>
       </c>
@@ -24279,7 +24277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A361" s="3">
         <v>360</v>
       </c>
@@ -24341,7 +24339,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A362" s="3">
         <v>361</v>
       </c>
@@ -24403,7 +24401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A363" s="3">
         <v>362</v>
       </c>
@@ -24465,7 +24463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A364" s="3">
         <v>363</v>
       </c>
@@ -24527,7 +24525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A365" s="3">
         <v>364</v>
       </c>
@@ -24589,7 +24587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A366" s="3">
         <v>365</v>
       </c>
@@ -24651,7 +24649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A367" s="3">
         <v>366</v>
       </c>
@@ -24713,7 +24711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A368" s="3">
         <v>367</v>
       </c>
@@ -24775,7 +24773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A369" s="3">
         <v>368</v>
       </c>
@@ -24837,7 +24835,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A370" s="3">
         <v>369</v>
       </c>
@@ -24899,7 +24897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A371" s="3">
         <v>370</v>
       </c>
@@ -24961,7 +24959,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A372" s="3">
         <v>371</v>
       </c>
@@ -25023,7 +25021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A373" s="3">
         <v>372</v>
       </c>
@@ -25085,7 +25083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A374" s="3">
         <v>373</v>
       </c>
@@ -25147,7 +25145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A375" s="3">
         <v>374</v>
       </c>
@@ -25209,7 +25207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A376" s="3">
         <v>375</v>
       </c>
@@ -25271,7 +25269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A377" s="3">
         <v>376</v>
       </c>
@@ -25333,7 +25331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A378" s="3">
         <v>377</v>
       </c>
@@ -25395,7 +25393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A379" s="3">
         <v>378</v>
       </c>
@@ -25457,7 +25455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="380" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A380" s="3">
         <v>379</v>
       </c>
@@ -25519,7 +25517,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A381" s="3">
         <v>380</v>
       </c>
@@ -25581,7 +25579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A382" s="3">
         <v>381</v>
       </c>
@@ -25643,7 +25641,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A383" s="3">
         <v>382</v>
       </c>
@@ -25705,7 +25703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="384" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A384" s="3">
         <v>383</v>
       </c>
@@ -25767,7 +25765,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="385" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A385" s="3">
         <v>384</v>
       </c>
@@ -25829,7 +25827,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="386" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A386" s="3">
         <v>385</v>
       </c>
@@ -25891,7 +25889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="387" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A387" s="3">
         <v>386</v>
       </c>
@@ -25953,7 +25951,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="388" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A388" s="3">
         <v>387</v>
       </c>
@@ -26015,7 +26013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="389" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A389" s="3">
         <v>388</v>
       </c>
@@ -26077,7 +26075,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="390" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A390" s="3">
         <v>389</v>
       </c>
@@ -26139,7 +26137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="391" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A391" s="3">
         <v>390</v>
       </c>
@@ -26201,7 +26199,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="392" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A392" s="3">
         <v>391</v>
       </c>
@@ -26263,7 +26261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="393" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A393" s="3">
         <v>392</v>
       </c>
@@ -26325,7 +26323,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="394" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A394" s="3">
         <v>393</v>
       </c>
@@ -26387,7 +26385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="395" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A395" s="3">
         <v>394</v>
       </c>
@@ -26449,7 +26447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="396" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A396" s="3">
         <v>395</v>
       </c>
@@ -26511,7 +26509,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="397" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A397" s="3">
         <v>396</v>
       </c>
@@ -26573,7 +26571,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="398" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A398" s="3">
         <v>397</v>
       </c>
@@ -26635,7 +26633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="399" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A399" s="3">
         <v>398</v>
       </c>
@@ -26697,7 +26695,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="400" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A400" s="3">
         <v>399</v>
       </c>
@@ -26759,7 +26757,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="401" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A401" s="3">
         <v>400</v>
       </c>
@@ -26821,7 +26819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="402" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A402" s="3">
         <v>401</v>
       </c>
@@ -26883,7 +26881,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="403" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A403" s="3">
         <v>402</v>
       </c>
@@ -26945,7 +26943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="404" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A404" s="3">
         <v>403</v>
       </c>
@@ -27007,7 +27005,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="405" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A405" s="3">
         <v>404</v>
       </c>
@@ -27069,7 +27067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="406" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A406" s="3">
         <v>405</v>
       </c>
@@ -27131,7 +27129,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="407" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A407" s="3">
         <v>406</v>
       </c>
@@ -27193,7 +27191,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="408" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A408" s="3">
         <v>407</v>
       </c>
@@ -27255,7 +27253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="409" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A409" s="3">
         <v>408</v>
       </c>
@@ -27317,7 +27315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="410" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A410" s="3">
         <v>409</v>
       </c>
@@ -27379,7 +27377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="411" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A411" s="3">
         <v>410</v>
       </c>
@@ -27441,7 +27439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="412" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A412" s="3">
         <v>411</v>
       </c>
@@ -27503,7 +27501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="413" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A413" s="3">
         <v>412</v>
       </c>
@@ -27565,7 +27563,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="414" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A414" s="3">
         <v>413</v>
       </c>
@@ -27627,7 +27625,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="415" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A415" s="3">
         <v>414</v>
       </c>
@@ -27689,7 +27687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="416" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A416" s="3">
         <v>415</v>
       </c>
@@ -27751,7 +27749,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="417" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A417" s="3">
         <v>416</v>
       </c>
@@ -27813,7 +27811,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="418" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A418" s="3">
         <v>417</v>
       </c>
@@ -27875,7 +27873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="419" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A419" s="3">
         <v>418</v>
       </c>
@@ -27937,7 +27935,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="420" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A420" s="3">
         <v>419</v>
       </c>
@@ -27999,7 +27997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="421" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A421" s="3">
         <v>420</v>
       </c>
@@ -28061,7 +28059,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="422" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A422" s="3">
         <v>421</v>
       </c>
@@ -28123,7 +28121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="423" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A423" s="3">
         <v>422</v>
       </c>
@@ -28185,7 +28183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="424" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A424" s="3">
         <v>423</v>
       </c>
@@ -28247,7 +28245,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="425" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A425" s="3">
         <v>424</v>
       </c>
@@ -28309,7 +28307,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="426" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A426" s="3">
         <v>425</v>
       </c>
@@ -28371,7 +28369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="427" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A427" s="3">
         <v>426</v>
       </c>
@@ -28433,7 +28431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="428" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A428" s="3">
         <v>427</v>
       </c>
@@ -28495,7 +28493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="429" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A429" s="3">
         <v>428</v>
       </c>
@@ -28557,7 +28555,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="430" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A430" s="3">
         <v>429</v>
       </c>
@@ -28619,7 +28617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="431" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A431" s="3">
         <v>430</v>
       </c>
@@ -28681,7 +28679,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="432" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A432" s="3">
         <v>431</v>
       </c>
@@ -28743,7 +28741,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="433" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A433" s="3">
         <v>432</v>
       </c>
@@ -28805,7 +28803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="434" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A434" s="3">
         <v>433</v>
       </c>
@@ -28867,7 +28865,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="435" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A435" s="3">
         <v>434</v>
       </c>
@@ -28929,7 +28927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="436" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A436" s="3">
         <v>435</v>
       </c>
@@ -28991,7 +28989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="437" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A437" s="3">
         <v>436</v>
       </c>
@@ -29053,7 +29051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="438" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A438" s="3">
         <v>437</v>
       </c>
@@ -29115,7 +29113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="439" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A439" s="3">
         <v>438</v>
       </c>
